--- a/WIP/Deliverable/Report2/VMN_Checklist_Design Review_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report2/VMN_Checklist_Design Review_v1.0_EN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asusk53sd\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="343" activeTab="1"/>
+    <workbookView xWindow="3760" yWindow="0" windowWidth="20500" windowHeight="7760" tabRatio="343" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture design" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Architecture design'!$10:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Detail design'!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -915,10 +915,10 @@
         <color indexed="18"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1331,7 +1331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1540,26 +1540,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.1640625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A1" s="88" t="s">
         <v>38</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1583,7 +1583,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>97</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -1661,8 +1661,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13" thickBot="1"/>
+    <row r="10" spans="1:9" ht="21" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="85" t="s">
         <v>37</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="43" customFormat="1">
       <c r="A12" s="59" t="s">
         <v>69</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A13" s="58" t="s">
         <v>67</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
     </row>
-    <row r="14" spans="1:9" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="43" customFormat="1" ht="36">
       <c r="A14" s="72" t="s">
         <v>62</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A15" s="73" t="s">
         <v>63</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="43" customFormat="1" ht="36">
       <c r="A16" s="72" t="s">
         <v>65</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
     </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="43" customFormat="1" ht="36">
       <c r="A17" s="73" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="43" customFormat="1">
       <c r="A18" s="59" t="s">
         <v>66</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="43" customFormat="1">
       <c r="A19" s="57" t="s">
         <v>70</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="43" customFormat="1">
       <c r="A20" s="58" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A21" s="58" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
     </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="43" customFormat="1">
       <c r="A22" s="59" t="s">
         <v>71</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="43" customFormat="1">
       <c r="A23" s="58" t="s">
         <v>79</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="43" customFormat="1">
       <c r="A24" s="58" t="s">
         <v>80</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="43" customFormat="1">
       <c r="A25" s="58" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A26" s="58" t="s">
         <v>55</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
     </row>
-    <row r="27" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="64" customFormat="1">
       <c r="A27" s="58" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="43" customFormat="1">
       <c r="A28" s="58" t="s">
         <v>44</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="29" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="64" customFormat="1">
       <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="64" customFormat="1">
       <c r="A30" s="58" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="64" customFormat="1">
       <c r="A31" s="59" t="s">
         <v>72</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="43" customFormat="1">
       <c r="A32" s="58" t="s">
         <v>47</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="43" customFormat="1">
       <c r="A33" s="58" t="s">
         <v>48</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="43" customFormat="1">
       <c r="A34" s="58" t="s">
         <v>49</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
     </row>
-    <row r="35" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="64" customFormat="1">
       <c r="A35" s="59" t="s">
         <v>73</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" spans="1:9" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="64" customFormat="1" ht="24">
       <c r="A36" s="58" t="s">
         <v>51</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
     </row>
-    <row r="37" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="43" customFormat="1">
       <c r="A37" s="71" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="43" customFormat="1">
       <c r="A38" s="71" t="s">
         <v>46</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="43" customFormat="1">
       <c r="A39" s="57" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="H39" s="42"/>
       <c r="I39" s="42"/>
     </row>
-    <row r="40" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="43" customFormat="1">
       <c r="A40" s="48" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
     </row>
-    <row r="41" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="64" customFormat="1">
       <c r="A41" s="58" t="s">
         <v>82</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
     </row>
-    <row r="42" spans="1:9" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="64" customFormat="1" ht="36">
       <c r="A42" s="58" t="s">
         <v>81</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
     </row>
-    <row r="43" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="43" customFormat="1">
       <c r="A43" s="66" t="s">
         <v>52</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
     </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A44" s="66" t="s">
         <v>53</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="43" customFormat="1">
       <c r="A45" s="58" t="s">
         <v>54</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="43" customFormat="1">
       <c r="A46" s="59" t="s">
         <v>75</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="43" customFormat="1" ht="48">
       <c r="A47" s="58" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
     </row>
-    <row r="48" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="43" customFormat="1">
       <c r="A48" s="58" t="s">
         <v>56</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="43" customFormat="1">
       <c r="A49" s="58" t="s">
         <v>68</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="H49" s="42"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="43" customFormat="1">
       <c r="A50" s="57" t="s">
         <v>76</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="H50" s="42"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="43" customFormat="1">
       <c r="A51" s="58" t="s">
         <v>40</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="H51" s="42"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="43" customFormat="1">
       <c r="A52" s="58" t="s">
         <v>41</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
     </row>
-    <row r="53" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A53" s="59" t="s">
         <v>78</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
     </row>
-    <row r="54" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="43" customFormat="1">
       <c r="A54" s="58" t="s">
         <v>33</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
     </row>
-    <row r="55" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="43" customFormat="1">
       <c r="A55" s="58" t="s">
         <v>34</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
     </row>
-    <row r="56" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="43" customFormat="1">
       <c r="A56" s="58" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
     </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="43" customFormat="1">
       <c r="A57" s="58" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
     </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="43" customFormat="1">
       <c r="A58" s="47" t="s">
         <v>27</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
     </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="43" customFormat="1">
       <c r="A59" s="59" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
     </row>
-    <row r="60" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="43" customFormat="1">
       <c r="A60" s="74" t="s">
         <v>61</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="H60" s="42"/>
       <c r="I60" s="42"/>
     </row>
-    <row r="61" spans="1:9" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A61" s="58" t="s">
         <v>22</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="H61" s="42"/>
       <c r="I61" s="42"/>
     </row>
-    <row r="62" spans="1:9" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A62" s="58" t="s">
         <v>29</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
     </row>
-    <row r="63" spans="1:9" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="64" customFormat="1" ht="24">
       <c r="A63" s="58" t="s">
         <v>50</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
     </row>
-    <row r="64" spans="1:9" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="64" customFormat="1" ht="24">
       <c r="A64" s="58" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="85" t="s">
         <v>19</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="24">
       <c r="A66" s="49" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="F66" s="26"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="24">
       <c r="A67" s="54" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="F67" s="26"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="54" t="s">
         <v>15</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="F68" s="26"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="24">
       <c r="A69" s="54" t="s">
         <v>16</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="F69" s="26"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="55" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="56" t="s">
         <v>17</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="54" t="s">
         <v>18</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="F72" s="26"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="56" t="s">
         <v>30</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="F73" s="26"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="43" customFormat="1">
       <c r="A74" s="45"/>
       <c r="B74" s="46"/>
       <c r="C74" s="39"/>
@@ -2505,7 +2505,7 @@
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
     </row>
-    <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13" thickBot="1">
       <c r="A75" s="51"/>
       <c r="B75" s="50"/>
       <c r="C75" s="21"/>
@@ -2516,14 +2516,14 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="23" t="s">
         <v>4</v>
       </c>
@@ -2533,51 +2533,51 @@
       <c r="E77" s="4"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="8"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -2590,35 +2590,40 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;L05e-CL/PM/HDCV/FSOFT v1/5&amp;CInternal use&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.1640625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A1" s="88" t="s">
         <v>39</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2642,7 +2647,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
@@ -2655,7 +2660,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -2668,7 +2673,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -2681,7 +2686,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -2694,7 +2699,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2707,7 +2712,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -2720,8 +2725,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13" thickBot="1"/>
+    <row r="10" spans="1:9" ht="23.25" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2751,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="85" t="s">
         <v>37</v>
       </c>
@@ -2759,7 +2764,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A12" s="83" t="s">
         <v>90</v>
       </c>
@@ -2772,7 +2777,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="35" customFormat="1">
       <c r="A13" s="54" t="s">
         <v>91</v>
       </c>
@@ -2785,7 +2790,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="35" customFormat="1">
       <c r="A14" s="69" t="s">
         <v>92</v>
       </c>
@@ -2800,7 +2805,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="35" customFormat="1">
       <c r="A15" s="84" t="s">
         <v>93</v>
       </c>
@@ -2815,7 +2820,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:9" s="35" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="35" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="70" t="s">
         <v>94</v>
       </c>
@@ -2830,7 +2835,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="35" customFormat="1">
       <c r="A17" s="70" t="s">
         <v>95</v>
       </c>
@@ -2845,7 +2850,7 @@
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="43" customFormat="1">
       <c r="A18" s="57"/>
       <c r="B18" s="75"/>
       <c r="C18" s="76"/>
@@ -2856,7 +2861,7 @@
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="43" customFormat="1">
       <c r="A19" s="67" t="s">
         <v>77</v>
       </c>
@@ -2869,7 +2874,7 @@
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="43" customFormat="1" ht="24">
       <c r="A20" s="58" t="s">
         <v>60</v>
       </c>
@@ -2884,7 +2889,7 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="43" customFormat="1">
       <c r="A21" s="57" t="s">
         <v>59</v>
       </c>
@@ -2899,7 +2904,7 @@
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
     </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="43" customFormat="1">
       <c r="A22" s="66" t="s">
         <v>58</v>
       </c>
@@ -2914,7 +2919,7 @@
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="43" customFormat="1">
       <c r="A23" s="58" t="s">
         <v>89</v>
       </c>
@@ -2929,7 +2934,7 @@
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="64" customFormat="1">
       <c r="A24" s="66"/>
       <c r="B24" s="75"/>
       <c r="C24" s="76"/>
@@ -2940,7 +2945,7 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
     </row>
-    <row r="25" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="64" customFormat="1">
       <c r="A25" s="67" t="s">
         <v>88</v>
       </c>
@@ -2953,7 +2958,7 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
     </row>
-    <row r="26" spans="1:9" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="64" customFormat="1" ht="24">
       <c r="A26" s="67" t="s">
         <v>96</v>
       </c>
@@ -2968,7 +2973,7 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="43" customFormat="1">
       <c r="A27" s="66"/>
       <c r="B27" s="75"/>
       <c r="C27" s="76"/>
@@ -2979,7 +2984,7 @@
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="85" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +2997,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="24">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +3008,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="28.5" customHeight="1">
       <c r="A30" s="54" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3023,7 @@
       <c r="F30" s="26"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="24">
       <c r="A31" s="54" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3036,7 @@
       <c r="F31" s="26"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="24">
       <c r="A32" s="56" t="s">
         <v>30</v>
       </c>
@@ -3044,7 +3049,7 @@
       <c r="F32" s="26"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="55"/>
       <c r="B33" s="75"/>
       <c r="C33" s="79"/>
@@ -3055,7 +3060,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" s="43" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="45"/>
       <c r="B34" s="75"/>
       <c r="C34" s="76"/>
@@ -3066,7 +3071,7 @@
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13" thickBot="1">
       <c r="A35" s="51" t="s">
         <v>21</v>
       </c>
@@ -3079,14 +3084,14 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="23" t="s">
         <v>4</v>
       </c>
@@ -3096,51 +3101,51 @@
       <c r="E37" s="4"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -3153,7 +3158,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;L05e-CL/PM/HDCV/FSOFT v1/5&amp;CInternal use&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -3163,5 +3168,10 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>